--- a/test/src/test/resources/company-import-data.xlsx
+++ b/test/src/test/resources/company-import-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kojaehun/IdeaProjects/pico-erp-company/company-test/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kojaehun/IdeaProjects/pico-erp-company/test/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="company-addresses" sheetId="2" r:id="rId2"/>
     <sheet name="company-contacts" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" iterateCount="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -127,9 +127,6 @@
     <t>telephoneNumber</t>
   </si>
   <si>
-    <t>mobilePhoneNumber</t>
-  </si>
-  <si>
     <t>address[postalCode]</t>
   </si>
   <si>
@@ -225,6 +222,14 @@
   </si>
   <si>
     <t>customer2@kd-ace.co.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faxNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>represented</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,7 +268,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -286,18 +291,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
@@ -625,14 +674,14 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>"2118623450"</f>
         <v>2118623450</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -779,17 +828,17 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>"0000000005"</f>
         <v>0000000005</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>10</v>
@@ -812,10 +861,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -829,9 +878,10 @@
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -845,59 +895,65 @@
         <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>"+821011111112"</f>
@@ -911,12 +967,15 @@
         <v>13497</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -955,19 +1014,19 @@
         <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
@@ -975,25 +1034,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>10</v>
@@ -1001,16 +1060,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="3" t="str">
         <f>"+821011111112"</f>
